--- a/medicine/Enfance/Sylvie_Massicotte/Sylvie_Massicotte.xlsx
+++ b/medicine/Enfance/Sylvie_Massicotte/Sylvie_Massicotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvie Massicotte est nouvelliste, auteure de romans jeunesse, parolière, animatrice d’ateliers d’écriture et pédagogue. Née le 11 juin 1959 à Richmond, dans les Cantons-de-l’Est (Québec), elle vit maintenant près de Montréal.
 Dotée d’une grande compassion pour le genre humain, l’écrivaine maîtrise l’art subtil de raconter la vie avec délicatesse et lucidité. Son style minimaliste et sa grande force d’évocation amènent le lecteur à imaginer, à extrapoler, à poursuivre sa réflexion. Une écriture qui suggère bien plus qu’elle ne souligne.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toute jeune, elle s’invente des histoires sur le chemin de l’école et dès l’âge de seize ans, elle annonce à ses parents qu’elle prend une « année sabbatique » pour écrire. L’année suivante, on l’invite à monter sur scène et à réciter son premier texte pour la jeunesse dans le cadre du Mai théâtral 1977 au Centre d’art et d’essai le Conventum, à Montréal.
 De 1983 à 1986, se guidant sur le précepte que « pour écrire, il faut avoir vécu », elle prend le chemin du voyage. Elle parcourt l’Europe et l’Afrique, périple qui marquera profondément toute la suite de son écriture.
-En 1988, elle prend part à des performances d’improvisation avec le cinéaste d’animation Pierre Hébert, la chorégraphe Louise Bédard et le compositeur Robert-Marcel Lepage. Un des textes qu’elle crée dans ce cadre fait partie du court métrage La lettre d’amour, de Pierre Hébert (ONF)[1]. Ces textes poétiques, de plus en plus narratifs, la mènent à la nouvelle et elle publie son premier recueil, L’œil de verre en 1993.
+En 1988, elle prend part à des performances d’improvisation avec le cinéaste d’animation Pierre Hébert, la chorégraphe Louise Bédard et le compositeur Robert-Marcel Lepage. Un des textes qu’elle crée dans ce cadre fait partie du court métrage La lettre d’amour, de Pierre Hébert (ONF). Ces textes poétiques, de plus en plus narratifs, la mènent à la nouvelle et elle publie son premier recueil, L’œil de verre en 1993.
 Elle obtient une maîtrise en Études littéraires, profil Création, à l’Université du Québec à Montréal en 1994.
-En 1998, elle coscénarise un court métrage d’animation de Suzanne Gervais, Le seuil (ONF)[2].
+En 1998, elle coscénarise un court métrage d’animation de Suzanne Gervais, Le seuil (ONF).
 À ce jour, elle a publié aux Éditions L’instant même cinq recueils de nouvelles, genre littéraire pour lequel elle est devenue une véritable référence. Elle a fait paraître, chez Leméac, un récit qui constitue une réflexion sur l’écriture et le voyage. Pour enfants et adolescents, elle signe dix romans aux éditions La Courte Échelle, où elle a assuré la direction littéraire d’une collection de Poésie jeunesse.
 Parolière, notamment pour Dan Bigras, Isabelle Boulay, Luce Dufault, Diane Dufresne, Breen Leboeuf et Claire Pelletier, elle perçoit l’écriture de chansons comme un rendez-vous avec la voix de l’autre.
 Elle dirige des ateliers d’écriture au Canada et en Europe, est membre du comité de rédaction de XYZ, la revue de la nouvelle, participe à des événements littéraires, fait des tournées dans les bibliothèques, les écoles, les cégeps et les universités. Elle est, depuis peu, chargée de cours au département d’Études littéraires de l’Université du Québec à Montréal.
@@ -550,7 +564,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs de ses nouvelles ont été traduites et publiées en anglais, en espagnol, en néerlandais, en tamoul et en tchèque.
 </t>
@@ -581,7 +597,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1998 : Grand Prix littéraire de la Société Radio-Canada, catégorie Nouvelles
 1999 : Médaille du Rayonnement culturel de l’Association de la Renaissance française
@@ -614,7 +632,9 @@
           <t>Résidences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2001 : Université d'Ottawa
 2004 : Fondation des Lettres néerlandaises, à Amsterdam (Conseil des arts et des lettres du Québec)
